--- a/biology/Botanique/Tectiphiala_ferox/Tectiphiala_ferox.xlsx
+++ b/biology/Botanique/Tectiphiala_ferox/Tectiphiala_ferox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tectiphiala ferox, ou Palmiste Bouclé, est une espèce de plantes du genre monospécifique Tectiphiala de la famille des Arecaceae  (Palmae). Ce Palmier est endémique de l'île Maurice. Il est menacé par la perte de son habitat naturel.  
 Cette espèce demeure dans les hautes terres de l'île Maurice, se situant entre 570 et 650 m.  
@@ -513,7 +525,9 @@
           <t>Position dans la systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
